--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E583E6-A1B7-1D44-9DB1-4038122BE8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1625AC-3080-7D41-B69A-64A06C97CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-DMQ_I-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-HIQ_I</t>
+  </si>
+  <si>
+    <t>NHANES-HIQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-HIQ_I-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1491,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1546,9 +1555,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{54B22C2E-5226-0047-A73B-91DED9AE2E6E}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1625AC-3080-7D41-B69A-64A06C97CE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBEB63-FEBD-074E-AC4D-56CBFD935736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="-24640" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -130,13 +130,58 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-HIQ_I-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-DIQ</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-T</t>
+  </si>
+  <si>
+    <t>NHANES-RXQ_RX-P</t>
+  </si>
+  <si>
+    <t>NHANES-LAB-RESULTS</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-6000-ANALYZER</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-C-ANALYZER-C311</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-TOSOH-G8-GLYCOHEMOGLOBIN-ANALYZER</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-DIQ_I</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DIQ_I-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-RXQ_RX_I-T</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-DSQ_I-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-RXQ_RX_I-P</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-TCHOL_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-GLU_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-GHB_I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -158,6 +203,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -204,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -218,6 +269,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1500,17 +1556,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1537,46 +1593,160 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
+    <row r="2" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{54B22C2E-5226-0047-A73B-91DED9AE2E6E}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{096636F7-A07F-F74B-82AA-C334877213B8}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{A0BE261D-F687-3D4F-BCD2-AEC4B2F270F8}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{8682B14F-A9E0-E245-98A7-CE7C5E99A7D3}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{E3A12852-8762-6041-BB13-F31E575AD276}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{4B314E79-4DC7-F54F-8C73-3F8826FF29D1}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{206C5ECA-E0ED-BC4C-A086-FA6EE36BC935}"/>
+    <hyperlink ref="E2" r:id="rId7" xr:uid="{8B9AC86C-9045-7B49-A0F5-ECD10E6A7DE1}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBEB63-FEBD-074E-AC4D-56CBFD935736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB8634-9CE8-D041-B423-F2D840660F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="-24640" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25460" yWindow="-18660" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-6000-ANALYZER</t>
   </si>
   <si>
-    <t>nhanes-kb:DPL-ROCHE-HITACHI-COBAS-C-ANALYZER-C311</t>
-  </si>
-  <si>
     <t>nhanes-kb:DPL-TOSOH-G8-GLYCOHEMOGLOBIN-ANALYZER</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>NHANES-2015-2016-GHB_I</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-UNICEL-DXC-660i-SYNCHRON</t>
   </si>
 </sst>
 </file>
@@ -1559,14 +1559,14 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="8" t="s">
@@ -1631,13 +1631,13 @@
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="8" t="s">
@@ -1649,13 +1649,13 @@
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="8" t="s">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>35</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
+      <c r="C8" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
@@ -1721,13 +1721,13 @@
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB8634-9CE8-D041-B423-F2D840660F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2BABD-A18C-4448-9863-FA1902FD098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25460" yWindow="-18660" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BECKMAN-COULTER-UNICEL-DXC-660i-SYNCHRON</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BECKMAN-COULTER-ICON-25-HCG-URINE-SERUM-TEST-KIT</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-UCPREG_I</t>
   </si>
 </sst>
 </file>
@@ -1556,17 +1562,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="56.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
@@ -1734,6 +1740,24 @@
         <v>24</v>
       </c>
       <c r="F9" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1747,6 +1771,7 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{206C5ECA-E0ED-BC4C-A086-FA6EE36BC935}"/>
     <hyperlink ref="E2" r:id="rId7" xr:uid="{8B9AC86C-9045-7B49-A0F5-ECD10E6A7DE1}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2BABD-A18C-4448-9863-FA1902FD098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9D15F-3369-544A-9349-419E0E737E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25460" yWindow="-18660" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2440" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>NHANES-2015-2016-UCPREG_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-BPQ_I</t>
+  </si>
+  <si>
+    <t>NHANES-BPQ</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-BPQ_I-QUESTIONNAIRE</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1601,13 +1610,13 @@
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="8" t="s">
@@ -1618,14 +1627,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>26</v>
+      <c r="A3" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="8" t="s">
@@ -1636,14 +1645,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>40</v>
+      <c r="A4" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="8" t="s">
@@ -1655,10 +1664,10 @@
     </row>
     <row r="5" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>41</v>
@@ -1673,13 +1682,13 @@
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="8" t="s">
@@ -1691,13 +1700,13 @@
     </row>
     <row r="7" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="8" t="s">
@@ -1709,13 +1718,13 @@
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
+      <c r="C8" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="8" t="s">
@@ -1727,13 +1736,13 @@
     </row>
     <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
@@ -1745,13 +1754,13 @@
     </row>
     <row r="10" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="8" t="s">
@@ -1761,17 +1770,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{096636F7-A07F-F74B-82AA-C334877213B8}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{A0BE261D-F687-3D4F-BCD2-AEC4B2F270F8}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{8682B14F-A9E0-E245-98A7-CE7C5E99A7D3}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{E3A12852-8762-6041-BB13-F31E575AD276}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{4B314E79-4DC7-F54F-8C73-3F8826FF29D1}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{206C5ECA-E0ED-BC4C-A086-FA6EE36BC935}"/>
-    <hyperlink ref="E2" r:id="rId7" xr:uid="{8B9AC86C-9045-7B49-A0F5-ECD10E6A7DE1}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{096636F7-A07F-F74B-82AA-C334877213B8}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{A0BE261D-F687-3D4F-BCD2-AEC4B2F270F8}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{8682B14F-A9E0-E245-98A7-CE7C5E99A7D3}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{E3A12852-8762-6041-BB13-F31E575AD276}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{4B314E79-4DC7-F54F-8C73-3F8826FF29D1}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{206C5ECA-E0ED-BC4C-A086-FA6EE36BC935}"/>
+    <hyperlink ref="E3" r:id="rId7" xr:uid="{8B9AC86C-9045-7B49-A0F5-ECD10E6A7DE1}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{67F42617-7176-404B-AC20-CA96325FA93B}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC9D15F-3369-544A-9349-419E0E737E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60BB87-14ED-9C41-958F-01A8B5CD3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="2440" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoSheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -190,6 +190,24 @@
   </si>
   <si>
     <t>nhanes-kb:DPL-BPQ_I-QUESTIONNAIRE</t>
+  </si>
+  <si>
+    <t>NHANES-BPX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-INFANTOMETER-STADIOMETER</t>
+  </si>
+  <si>
+    <t>NHANES-BMX</t>
+  </si>
+  <si>
+    <t>nhanes-kb:DPL-STEEL-MEASURING-TAPE</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-BPX_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-BMX_I</t>
   </si>
 </sst>
 </file>
@@ -270,24 +288,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1480,7 +1491,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="3"/>
@@ -1571,21 +1582,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="64.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="65.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1608,183 +1619,219 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1800,6 +1847,8 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{67F42617-7176-404B-AC20-CA96325FA93B}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{E36E8D6A-25A9-2847-910C-82E6B81DE64F}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{6AC2AF7B-91AC-624D-B45D-7B146FFAF1C5}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
@@ -1818,9 +1867,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="8" width="11.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1957,9 +2006,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="11.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60BB87-14ED-9C41-958F-01A8B5CD3088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5E1D7-2210-414D-ADF2-0A7FE2185C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>NHANES-2015-2016-BMX_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-BIOPRO_I</t>
   </si>
 </sst>
 </file>
@@ -1582,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1801,13 +1804,13 @@
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5" t="s">
@@ -1819,19 +1822,37 @@
     </row>
     <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1847,8 +1868,9 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{67F42617-7176-404B-AC20-CA96325FA93B}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{E36E8D6A-25A9-2847-910C-82E6B81DE64F}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{6AC2AF7B-91AC-624D-B45D-7B146FFAF1C5}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{E36E8D6A-25A9-2847-910C-82E6B81DE64F}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{6AC2AF7B-91AC-624D-B45D-7B146FFAF1C5}"/>
+    <hyperlink ref="E12" r:id="rId13" xr:uid="{035C2F26-DF37-4A4C-8301-C0DDE1FDF1F7}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>

--- a/metadata/STR-NHANES-2015-2016.xlsx
+++ b/metadata/STR-NHANES-2015-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hansi/git/nhanes-hadatac/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C5E1D7-2210-414D-ADF2-0A7FE2185C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBA905C-0D4F-1649-A53F-BB477F2E2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1540" windowWidth="24280" windowHeight="16760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
   <si>
     <t xml:space="preserve">Property </t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>NHANES-2015-2016-BIOPRO_I</t>
+  </si>
+  <si>
+    <t>NHANES-2015-2016-TRIGLY_I</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1822,13 +1825,13 @@
     </row>
     <row r="13" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
@@ -1840,19 +1843,37 @@
     </row>
     <row r="14" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1868,9 +1889,10 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{C38775BA-274C-DA49-B263-60606C78DFB5}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{12B98745-2889-DE4C-9E30-FEA174D4CC20}"/>
     <hyperlink ref="E2" r:id="rId10" xr:uid="{67F42617-7176-404B-AC20-CA96325FA93B}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{E36E8D6A-25A9-2847-910C-82E6B81DE64F}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{6AC2AF7B-91AC-624D-B45D-7B146FFAF1C5}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{E36E8D6A-25A9-2847-910C-82E6B81DE64F}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{6AC2AF7B-91AC-624D-B45D-7B146FFAF1C5}"/>
     <hyperlink ref="E12" r:id="rId13" xr:uid="{035C2F26-DF37-4A4C-8301-C0DDE1FDF1F7}"/>
+    <hyperlink ref="E13" r:id="rId14" xr:uid="{BC8465FE-B0C0-EA49-B073-917CA6D08E27}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
